--- a/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H2">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I2">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J2">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>548.70683339184</v>
+        <v>808.4569121487179</v>
       </c>
       <c r="R2">
-        <v>548.70683339184</v>
+        <v>7276.112209338462</v>
       </c>
       <c r="S2">
-        <v>0.07058457412779165</v>
+        <v>0.07108387456252102</v>
       </c>
       <c r="T2">
-        <v>0.07058457412779165</v>
+        <v>0.08120311992489046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H3">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I3">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J3">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>31.15704984713784</v>
+        <v>36.994035871694</v>
       </c>
       <c r="R3">
-        <v>31.15704984713784</v>
+        <v>332.946322845246</v>
       </c>
       <c r="S3">
-        <v>0.004007981969067465</v>
+        <v>0.003252714357374635</v>
       </c>
       <c r="T3">
-        <v>0.004007981969067465</v>
+        <v>0.003715759103859659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H4">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I4">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J4">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>204.633909621126</v>
+        <v>8.711433562104</v>
       </c>
       <c r="R4">
-        <v>204.633909621126</v>
+        <v>78.40290205893601</v>
       </c>
       <c r="S4">
-        <v>0.026323706000573</v>
+        <v>0.0007659560346172476</v>
       </c>
       <c r="T4">
-        <v>0.026323706000573</v>
+        <v>0.0008749947877631845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>185.530546848043</v>
+        <v>70.597374</v>
       </c>
       <c r="H5">
-        <v>185.530546848043</v>
+        <v>211.792122</v>
       </c>
       <c r="I5">
-        <v>0.2924398408899263</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J5">
-        <v>0.2924398408899263</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>1590.068198298915</v>
+        <v>7.407147077454</v>
       </c>
       <c r="R5">
-        <v>1590.068198298915</v>
+        <v>66.664323697086</v>
       </c>
       <c r="S5">
-        <v>0.2045432638724323</v>
+        <v>0.0006512761605568756</v>
       </c>
       <c r="T5">
-        <v>0.2045432638724323</v>
+        <v>0.0007439894982568403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>185.530546848043</v>
+        <v>70.597374</v>
       </c>
       <c r="H6">
-        <v>185.530546848043</v>
+        <v>211.792122</v>
       </c>
       <c r="I6">
-        <v>0.2924398408899263</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J6">
-        <v>0.2924398408899263</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>90.2883490779663</v>
+        <v>319.501864836747</v>
       </c>
       <c r="R6">
-        <v>90.2883490779663</v>
+        <v>1917.011189020482</v>
       </c>
       <c r="S6">
-        <v>0.01161451667910724</v>
+        <v>0.02809232024769805</v>
       </c>
       <c r="T6">
-        <v>0.01161451667910724</v>
+        <v>0.0213942947828096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H7">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J7">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>592.9976668429181</v>
+        <v>2310.369207858299</v>
       </c>
       <c r="R7">
-        <v>592.9976668429181</v>
+        <v>20793.32287072469</v>
       </c>
       <c r="S7">
-        <v>0.07628206033838672</v>
+        <v>0.2031400715320989</v>
       </c>
       <c r="T7">
-        <v>0.07628206033838672</v>
+        <v>0.2320583633305375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H8">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J8">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>1149.211737423425</v>
+        <v>105.7197731480892</v>
       </c>
       <c r="R8">
-        <v>1149.211737423425</v>
+        <v>951.4779583328029</v>
       </c>
       <c r="S8">
-        <v>0.1478323507787726</v>
+        <v>0.009295450357723643</v>
       </c>
       <c r="T8">
-        <v>0.1478323507787726</v>
+        <v>0.01061871732231205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H9">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J9">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>65.25533346556284</v>
+        <v>24.895115071372</v>
       </c>
       <c r="R9">
-        <v>65.25533346556284</v>
+        <v>224.056035642348</v>
       </c>
       <c r="S9">
-        <v>0.008394318499300616</v>
+        <v>0.002188912247963319</v>
       </c>
       <c r="T9">
-        <v>0.008394318499300616</v>
+        <v>0.002500517942646642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H10">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J10">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.19622658865231</v>
+        <v>0.104921</v>
       </c>
       <c r="N10">
-        <v>3.19622658865231</v>
+        <v>0.314763</v>
       </c>
       <c r="O10">
-        <v>0.2608470176507144</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P10">
-        <v>0.2608470176507144</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q10">
-        <v>428.5853145982339</v>
+        <v>21.16778800288033</v>
       </c>
       <c r="R10">
-        <v>428.5853145982339</v>
+        <v>190.510092025923</v>
       </c>
       <c r="S10">
-        <v>0.05513237683106979</v>
+        <v>0.00186118562974942</v>
       </c>
       <c r="T10">
-        <v>0.05513237683106979</v>
+        <v>0.002126137338815102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>180.811697386847</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H11">
-        <v>180.811697386847</v>
+        <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.2850018226818199</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J11">
-        <v>0.2850018226818199</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.570384905948909</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N11">
-        <v>8.570384905948909</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O11">
-        <v>0.6994370645599617</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P11">
-        <v>0.6994370645599617</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q11">
-        <v>1549.625842103235</v>
+        <v>913.0570340603837</v>
       </c>
       <c r="R11">
-        <v>1549.625842103235</v>
+        <v>5478.342204362301</v>
       </c>
       <c r="S11">
-        <v>0.1993408382508108</v>
+        <v>0.08028087916902686</v>
       </c>
       <c r="T11">
-        <v>0.1993408382508108</v>
+        <v>0.06113958474135008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H12">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I12">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J12">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.486649506573794</v>
+        <v>11.451657</v>
       </c>
       <c r="N12">
-        <v>0.486649506573794</v>
+        <v>34.354971</v>
       </c>
       <c r="O12">
-        <v>0.03971591778932378</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P12">
-        <v>0.03971591778932378</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q12">
-        <v>87.99192331607925</v>
+        <v>1608.573471804985</v>
       </c>
       <c r="R12">
-        <v>87.99192331607925</v>
+        <v>14477.16124624486</v>
       </c>
       <c r="S12">
-        <v>0.01131910895943859</v>
+        <v>0.1414344205314317</v>
       </c>
       <c r="T12">
-        <v>0.01131910895943859</v>
+        <v>0.1615685172284722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H13">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I13">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J13">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.19622658865231</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N13">
-        <v>3.19622658865231</v>
+        <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.2608470176507144</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P13">
-        <v>0.2608470176507144</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q13">
-        <v>577.9151547271957</v>
+        <v>73.60642703894943</v>
       </c>
       <c r="R13">
-        <v>577.9151547271957</v>
+        <v>662.457843350545</v>
       </c>
       <c r="S13">
-        <v>0.07434187547157046</v>
+        <v>0.006471872462226601</v>
       </c>
       <c r="T13">
-        <v>0.07434187547157046</v>
+        <v>0.007393185007473858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>69.96608420987231</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H14">
-        <v>69.96608420987231</v>
+        <v>421.399315</v>
       </c>
       <c r="I14">
-        <v>0.1102830282216789</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J14">
-        <v>0.1102830282216789</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.570384905948909</v>
+        <v>0.123396</v>
       </c>
       <c r="N14">
-        <v>8.570384905948909</v>
+        <v>0.370188</v>
       </c>
       <c r="O14">
-        <v>0.6994370645599617</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P14">
-        <v>0.6994370645599617</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q14">
-        <v>599.6362720406399</v>
+        <v>17.33299662458</v>
       </c>
       <c r="R14">
-        <v>599.6362720406399</v>
+        <v>155.99696962122</v>
       </c>
       <c r="S14">
-        <v>0.07713603753015448</v>
+        <v>0.001524010172143345</v>
       </c>
       <c r="T14">
-        <v>0.07713603753015448</v>
+        <v>0.001740962792714152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>69.96608420987231</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H15">
-        <v>69.96608420987231</v>
+        <v>421.399315</v>
       </c>
       <c r="I15">
-        <v>0.1102830282216789</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J15">
-        <v>0.1102830282216789</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.486649506573794</v>
+        <v>0.104921</v>
       </c>
       <c r="N15">
-        <v>0.486649506573794</v>
+        <v>0.314763</v>
       </c>
       <c r="O15">
-        <v>0.03971591778932378</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P15">
-        <v>0.03971591778932378</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q15">
-        <v>34.04896035763488</v>
+        <v>14.73787917637167</v>
       </c>
       <c r="R15">
-        <v>34.04896035763488</v>
+        <v>132.640912587345</v>
       </c>
       <c r="S15">
-        <v>0.004379991682409872</v>
+        <v>0.001295833505716976</v>
       </c>
       <c r="T15">
-        <v>0.004379991682409872</v>
+        <v>0.001480303714661427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>69.96608420987231</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H16">
-        <v>69.96608420987231</v>
+        <v>421.399315</v>
       </c>
       <c r="I16">
-        <v>0.1102830282216789</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J16">
-        <v>0.1102830282216789</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.19622658865231</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N16">
-        <v>3.19622658865231</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O16">
-        <v>0.2608470176507144</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P16">
-        <v>0.2608470176507144</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q16">
-        <v>223.6274586554804</v>
+        <v>635.7076255340027</v>
       </c>
       <c r="R16">
-        <v>223.6274586554804</v>
+        <v>3814.245753204015</v>
       </c>
       <c r="S16">
-        <v>0.02876699900911451</v>
+        <v>0.05589482931353126</v>
       </c>
       <c r="T16">
-        <v>0.02876699900911451</v>
+        <v>0.04256787779095976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>189.8039196666666</v>
+      </c>
+      <c r="H17">
+        <v>569.411759</v>
+      </c>
+      <c r="I17">
+        <v>0.2791945869390566</v>
+      </c>
+      <c r="J17">
+        <v>0.2901800095992663</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.451657</v>
+      </c>
+      <c r="N17">
+        <v>34.354971</v>
+      </c>
+      <c r="O17">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P17">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q17">
+        <v>2173.569385278221</v>
+      </c>
+      <c r="R17">
+        <v>19562.12446750399</v>
+      </c>
+      <c r="S17">
+        <v>0.1911118962733677</v>
+      </c>
+      <c r="T17">
+        <v>0.2183179001942283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>189.8039196666666</v>
+      </c>
+      <c r="H18">
+        <v>569.411759</v>
+      </c>
+      <c r="I18">
+        <v>0.2791945869390566</v>
+      </c>
+      <c r="J18">
+        <v>0.2901800095992663</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.572043</v>
+      </c>
+      <c r="O18">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P18">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q18">
+        <v>99.45997442818187</v>
+      </c>
+      <c r="R18">
+        <v>895.1397698536368</v>
+      </c>
+      <c r="S18">
+        <v>0.008745055228056338</v>
+      </c>
+      <c r="T18">
+        <v>0.009989969916581657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>189.8039196666666</v>
+      </c>
+      <c r="H19">
+        <v>569.411759</v>
+      </c>
+      <c r="I19">
+        <v>0.2791945869390566</v>
+      </c>
+      <c r="J19">
+        <v>0.2901800095992663</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123396</v>
+      </c>
+      <c r="N19">
+        <v>0.370188</v>
+      </c>
+      <c r="O19">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P19">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q19">
+        <v>23.421044471188</v>
+      </c>
+      <c r="R19">
+        <v>210.789400240692</v>
+      </c>
+      <c r="S19">
+        <v>0.002059304042423598</v>
+      </c>
+      <c r="T19">
+        <v>0.002352459177948396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>189.8039196666666</v>
+      </c>
+      <c r="H20">
+        <v>569.411759</v>
+      </c>
+      <c r="I20">
+        <v>0.2791945869390566</v>
+      </c>
+      <c r="J20">
+        <v>0.2901800095992663</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.104921</v>
+      </c>
+      <c r="N20">
+        <v>0.314763</v>
+      </c>
+      <c r="O20">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P20">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q20">
+        <v>19.91441705534633</v>
+      </c>
+      <c r="R20">
+        <v>179.229753498117</v>
+      </c>
+      <c r="S20">
+        <v>0.001750982523218956</v>
+      </c>
+      <c r="T20">
+        <v>0.002000246113403382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>189.8039196666666</v>
+      </c>
+      <c r="H21">
+        <v>569.411759</v>
+      </c>
+      <c r="I21">
+        <v>0.2791945869390566</v>
+      </c>
+      <c r="J21">
+        <v>0.2901800095992663</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N21">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P21">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q21">
+        <v>858.9937960981965</v>
+      </c>
+      <c r="R21">
+        <v>5153.962776589179</v>
+      </c>
+      <c r="S21">
+        <v>0.07552734887198996</v>
+      </c>
+      <c r="T21">
+        <v>0.05751943419710454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.2091405</v>
+      </c>
+      <c r="H22">
+        <v>154.418281</v>
+      </c>
+      <c r="I22">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J22">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.451657</v>
+      </c>
+      <c r="N22">
+        <v>34.354971</v>
+      </c>
+      <c r="O22">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P22">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q22">
+        <v>884.1725942708084</v>
+      </c>
+      <c r="R22">
+        <v>5305.035565624851</v>
+      </c>
+      <c r="S22">
+        <v>0.07774120406209532</v>
+      </c>
+      <c r="T22">
+        <v>0.05920544197880238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.2091405</v>
+      </c>
+      <c r="H23">
+        <v>154.418281</v>
+      </c>
+      <c r="I23">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J23">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N23">
+        <v>1.572043</v>
+      </c>
+      <c r="O23">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P23">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q23">
+        <v>40.45869628634716</v>
+      </c>
+      <c r="R23">
+        <v>242.752177718083</v>
+      </c>
+      <c r="S23">
+        <v>0.003557345912397612</v>
+      </c>
+      <c r="T23">
+        <v>0.00270917127610681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.2091405</v>
+      </c>
+      <c r="H24">
+        <v>154.418281</v>
+      </c>
+      <c r="I24">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J24">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.123396</v>
+      </c>
+      <c r="N24">
+        <v>0.370188</v>
+      </c>
+      <c r="O24">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P24">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q24">
+        <v>9.527299101138</v>
+      </c>
+      <c r="R24">
+        <v>57.16379460682801</v>
+      </c>
+      <c r="S24">
+        <v>0.000837691315452979</v>
+      </c>
+      <c r="T24">
+        <v>0.0006379613638809039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.2091405</v>
+      </c>
+      <c r="H25">
+        <v>154.418281</v>
+      </c>
+      <c r="I25">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J25">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.104921</v>
+      </c>
+      <c r="N25">
+        <v>0.314763</v>
+      </c>
+      <c r="O25">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P25">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q25">
+        <v>8.100860230400501</v>
+      </c>
+      <c r="R25">
+        <v>48.605161382403</v>
+      </c>
+      <c r="S25">
+        <v>0.0007122711474329961</v>
+      </c>
+      <c r="T25">
+        <v>0.0005424450084261103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.2091405</v>
+      </c>
+      <c r="H26">
+        <v>154.418281</v>
+      </c>
+      <c r="I26">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J26">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N26">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P26">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q26">
+        <v>349.4246736740153</v>
+      </c>
+      <c r="R26">
+        <v>1397.698694696061</v>
+      </c>
+      <c r="S26">
+        <v>0.03072329433918482</v>
+      </c>
+      <c r="T26">
+        <v>0.01559864546599484</v>
       </c>
     </row>
   </sheetData>
